--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
@@ -687,13 +687,13 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1993705258", "https://openalex.org/W2016827174", "https://openalex.org/W2022307395", "https://openalex.org/W2035487696", "https://openalex.org/W2040644920", "https://openalex.org/W2042257108", "https://openalex.org/W2047350555", "https://openalex.org/W2059839841", "https://openalex.org/W2060712903", "https://openalex.org/W2066947344", "https://openalex.org/W2090593764", "https://openalex.org/W2105014174", "https://openalex.org/W2141890786", "https://openalex.org/W2165166253", 
-"https://openalex.org/W2169960170", "https://openalex.org/W2343069811", "https://openalex.org/W2780095858", "https://openalex.org/W2987515312", "https://openalex.org/W2999502522", "https://openalex.org/W3150895953")</t>
+          <t>c("https://openalex.org/W1993705258", "https://openalex.org/W2016827174", "https://openalex.org/W2022307395", "https://openalex.org/W2035487696", "https://openalex.org/W2040644920", "https://openalex.org/W2042257108", "https://openalex.org/W2047350555", "https://openalex.org/W2059839841", "https://openalex.org/W2060712903", "https://openalex.org/W2066947344", "https://openalex.org/W2090593764", "https://openalex.org/W2141890786", "https://openalex.org/W2165166253", "https://openalex.org/W2169960170", 
+"https://openalex.org/W2343069811", "https://openalex.org/W2780095858", "https://openalex.org/W2951777042", "https://openalex.org/W2987515312", "https://openalex.org/W2999502522", "https://openalex.org/W3150895953")</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1993015272", "https://openalex.org/W2803175941", "https://openalex.org/W2414286666", "https://openalex.org/W1558872876", "https://openalex.org/W2312639294", "https://openalex.org/W2187011375", "https://openalex.org/W3153475739", "https://openalex.org/W2405839080", "https://openalex.org/W2186405525", "https://openalex.org/W3165926808")</t>
+          <t>c("https://openalex.org/W3168494160", "https://openalex.org/W2902141141", "https://openalex.org/W2371182053", "https://openalex.org/W2071634754", "https://openalex.org/W2081356575", "https://openalex.org/W2067989704", "https://openalex.org/W2379270994", "https://openalex.org/W2374990448", "https://openalex.org/W2106705567", "https://openalex.org/W4249888297")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
@@ -3216,7 +3216,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210212343</t>
+          <t>https://openalex.org/S186746772</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0372-1248</t>
+          <t>0041-1132</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Parmarth College of Pharmacy, Hapur Bypass, Hapur, Uttar Pradesh, India; Pharmacognosy and Physiochemistry, IEC University, IEC School of Pharmacy, Solan, Himachal Pradesh, India; Department of Biotechnology, Jaypee Institute of Information Technology, Noida, U.P., India; Department of Biotechnology, Jaypee Institute of Information Technology, Noida, U.P., India; Departmentof Pharmaceutical Sciences, School of Heath Sciences, University of Petroleum and Energy Studies, Dehradun, India; Departmentof Pharmaceutical Sciences, School of Heath Sciences, University of Petroleum and Energy Studies, Dehradun, India; Departmentof Pharmaceutical Sciences, School of Heath Sciences, University of Petroleum and Energy Studies, Dehradun, India</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3165926808</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Formulation and evaluation of gastro-retentive Tinidazole loaded floating microsphere for sustained release</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Materials Today: Proceedings</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2021.05.616</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2021.05.616</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, School of Biological Engineering and Life Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Modipuram, Meerut 250001, India; Department of Biomedical Engineering, School of Biological Engineering and Life Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Modipuram, Meerut 250001, India; Department of Biomedical Engineering, School of Biological Engineering and Life Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Modipuram, Meerut 250001, India; Department of Electronics &amp; Communication Engineering, Manipal University, Jaipur, India; School of Physics and Material Science, Thapar University, Patiala 14700, India; School of Physics and Material Science, Thapar University, Patiala 14700, India</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312054619</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Electrical behavior of plant based material</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Materials Today: Proceedings</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2022.12.035</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2022.12.035</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Medical Sciences, University of Victoria, Victoria, BC V8P 5C2, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC V8P 5C2, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC V8P 5C2, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC V8P 5C2, Canada; Department of Psychiatry, University of British Columbia, Vancouver, BC V6T 2A1, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC V8P 5C2, Canada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383753275</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sex and interferon gamma signaling regulate microglia migration in the adult mouse cortex in vivo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Proceedings of the National Academy of Sciences of the United States of America</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>National Academy of Sciences</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1073/pnas.2302892120</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37428916</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1073/pnas.2302892120</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Genetics, Maharshi Dayanand University, Rohtak, India; Department of Genetics, Maharshi Dayanand University, Rohtak, India; DNA Division, Directorate of Forensic Services, Himachal Pradesh, India; Institute of Forensic Medicine, Forensic Molecular Biology, Head of Department (R&amp;T), University of Bern, Bern, Switzerland; Department of Genetics, Maharshi Dayanand University, Rohtak, India; Department of Genetics, Maharshi Dayanand University, Rohtak, India; Department of Genetics, Maharshi Dayanand University, Rohtak, India; Department of Genetics, Maharshi Dayanand University, Rohtak, India; Department of Genetics, Maharshi Dayanand University, Rohtak, India; School of Medicine, Indiana University, Indianapolis, USA; Department of Biotechnology, Chandigarh Group of Colleges, Landran, India</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383816485</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Genetic portrait of 23 Y-STR loci in the Brahmin population of Haryana, India</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Rechtsmedizin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00194-023-00634-z</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00194-023-00634-z</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Forensic Medicine and Toxicology, GMC Jammu, India.; Department of Forensic Medicine and Toxicology, GMC Jammu, India.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316362244</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Pattern of Unnatural Deaths in Jammu Province UT of J&amp;amp;K- A Ten Year Autopsy Based Retrospective Study</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,14 +825,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.9734/bpi/pramr/v6/3848b</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.9734/bpi/pramr/v6/3848b</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, Shobhit Institute of Engineering &amp; Technology (Deemed to be University), Modipuram, Meerut 250 110, India; Department of Biomedical Engineering, Shobhit Institute of Engineering &amp; Technology (Deemed to be University), Modipuram, Meerut 250 110, India; Department of Biomedical Engineering, Shobhit Institute of Engineering &amp; Technology (Deemed to be University), Modipuram, Meerut 250 110, India</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319164402</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Application of bimetallic Zr- Co nanoparticles synthesized by a green route for antibacterial, antioxidant and antitumor activities</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Materials Today: Proceedings</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2023.01.262</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2023.01.262</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Victoria; University of Victoria; University of Victoria; Department of Psychiatry, University of British Columbia, Vancouver, BC, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC, V8P 5C2, Canada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319234830</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sex and interferon gamma signaling regulate microglia migration in adult mouse cortex&lt;i&gt;in vivo&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.02.526857</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.02.526857</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Neurosurgery, SGT Medical College, Haryana, India.; Department of Neurosurgery, Sushila Tiwari Hospital, Haldwani, India</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321794359</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FOOTPRINT SIGN IN BRAIN: REVISITED</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>GLOBAL JOURNAL FOR RESEARCH ANALYSIS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.36106/gjra/8102069</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.36106/gjra/8102069</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322627636</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Genetic Diversity of Autosomal STR Markers in the Brahmin Population of Rajasthan and Haryana: Significance in Population and Forensic Genetics</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sovremennye tehnologii v medicine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.17691/stm2023.15.1.07</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37388752</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.17691/stm2023.15.1.07</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saurabh Sharma, Simranjeet Singh, Shyam Sunder Sharma, Neerja Negi</t>
+          <t>Karan Wadhwa, Ajay Rana, Payal Mittal, Sahil Banwala, Saurabh Sharma</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630844</t>
+          <t>Department of Pharmaceutical Sciences, Maharshi Dayanand University, Rohtak, Haryana, 124001, India.; Institute of Pharmaceutical Sciences, Kurukshetra University, Kurukshetra, Haryana, 136119, India.; University Institute of Pharma Sciences, Chandigarh University, Gharuan, Mohali, Punjab 140413, India.; SDM College of Pharmacy, Rajound, Kaithal, Haryana, 136044, India.; R.K.S.D College of Pharmacy Kaithal, Haryana, 136027, India.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Big Data in Cloud Computing: An Overview</t>
+          <t>https://openalex.org/W4365814372</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>Insights on prospective role of Gallic acid as a Bioavailability Enhancer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>International Journal for Research in Applied Science and Engineering Technology</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>International Journal for Research in Applied Science and Engineering Technology (IJRASET)</t>
+          <t>Research journal of pharmacy and technology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22214/ijraset.2023.49619</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.52711/0974-360x.2023.00164</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.22214/ijraset.2023.49619</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52711/0974-360x.2023.00164</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Karan Wadhwa, Ajay Rana, Payal Mittal, Sahil Banwala, Saurabh Sharma</t>
+          <t>Sandeep Kumar, R. K. Pandey, Saurabh Sharma, Harendra Singh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365814372</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Insights on prospective role of Gallic acid as a Bioavailability Enhancer</t>
+          <t>https://openalex.org/W4372361380</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>Legendre Collocation Method for Generalized Fractional Advection Diffusion Equation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Research journal of pharmacy and technology</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.52711/0974-360x.2023.00164</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1201/9781003368069-5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,79 +1362,84 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.52711/0974-360x.2023.00164</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781003368069-5</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sandeep Kumar, R. K. Pandey, Saurabh Sharma, Harendra Singh</t>
+          <t>Saurabh Sharma, Ashish Kumar, Sudheesh K. Shukla, Subrata K. Das, A. Joshi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4372361380</t>
+          <t>Department of Biomedical Engineering, Shobhit Institute of Engineering and Technology (Deemed to-be-University), Meerut, Uttar Pradesh, India; Shobhit Institute of Engineering and Technology (Deemed-to-be-University), Meerut, Uttar Pradesh, India; Department of Biomedical Engineering, Shobhit Institute of Engineering and Technology (Deemed to-be-University), Meerut, Uttar Pradesh, India; Department of Biomedical Engineering, Shobhit Institute of Engineering and Technology (Deemed to-be-University), Meerut, Uttar Pradesh, India; Department of Biomedical Engineering, Shobhit Institute of Engineering and Technology (Deemed to-be-University), Meerut, Uttar Pradesh, India</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Legendre Collocation Method for Generalized Fractional Advection Diffusion Equation</t>
+          <t>https://openalex.org/W4380905212</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>Biomass-based functionalized carbon dots: A promising shield with antimicrobial activities</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781003368069-5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-91783-4.00003-6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1201/9781003368069-5</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b978-0-323-91783-4.00003-6</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1426,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saurabh Sharma, Ashish Kumar, Sudheesh K. Shukla, Subrata K. Das, A. Joshi</t>
+          <t>Saurabh Sharma, Alok Jain, Bharti Ramola, B Ravindar, Majid A. Al-Taee, Malik Bader Alazzam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380905212</t>
+          <t>Amity University Gwalior, India; Lovely Professional University, Phagwara; Uttaranchal Institute of Technology, Uttaranchal University; School of Sciences, SR University, Warangal, Telangana; Al-Farahidi University,Computer Science and IT,Baghdad,Iraq,10021; Information Technology College, Ajloun National University, Jordan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biomass-based functionalized carbon dots: A promising shield with antimicrobial activities</t>
+          <t>https://openalex.org/W4385192713</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Implementation of Natural Language Processing for sentiment Analysis</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,12 +1521,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-91783-4.00003-6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/icacite57410.2023.10182452</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,79 +1536,84 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-91783-4.00003-6</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.1109/icacite57410.2023.10182452</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Saurabh Sharma, Alok Jain, Bharti Ramola, B Ravindar, Majid A. Al-Taee, Malik Bader Alazzam</t>
+          <t>Raza Mushtaq, Anish Bhandari, Mark Greenhill, Marina-Portia Anthony, Saurabh Sharma</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385192713</t>
+          <t>Department of Medical Imaging, University of Arizona College of Medicine, 1501 N Campbell Ave, Tucson, Arizona, 85724; Department of Medical Imaging, University of Arizona College of Medicine, 1501 N Campbell Ave, Tucson, Arizona, 85724; Department of Medical Imaging, University of Arizona College of Medicine, 1501 N Campbell Ave, Tucson, Arizona, 85724; College of Liberal Arts and Sciences, Arizona State University, 1100 S McAllister Ave, Tempe, AZ 85281; Department of Medicine, University of Arizona College of Medicine, 1501 N Campbell Ave, Tucson, Arizona, 85724</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Implementation of Natural Language Processing for sentiment Analysis</t>
+          <t>https://openalex.org/W4385230019</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>MRI Imaging Appearance of Hyperostosis Frontalis Interna (HFI): A Case Report of Focal Benign Enhancement</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Current Medical Imaging Reviews</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icacite57410.2023.10182452</t>
+          <t>Bentham Science Publishers</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2174/1573405620666230720103113</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icacite57410.2023.10182452</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37489785</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2174/1573405620666230720103113</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raza Mushtaq, Anish Bhandari, Mark Greenhill, Marina-Portia Anthony, Saurabh Sharma</t>
+          <t>Saurabh Arora, Rasika Setia, Seema Dua, Mohit Dogra, Saurabh Sharma, Nita Radhakrishnan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385230019</t>
+          <t>Post Graduate Institute of Child Health (PGICH), Noida, India; Transfusion Medicine, BLK-MAX Super Speciality Hospital, Delhi, India; Post Graduate Institute of Child Health (PGICH), Noida, India; Transfusion Medicine, BLK-MAX Super Speciality Hospital, Delhi, India; Hematology Oncology and BMT, Venkateshwar Hospital Delhi, India; Post Graduate Institute of Child Health (PGICH), Noida, India</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MRI Imaging Appearance of Hyperostosis Frontalis Interna (HFI): A Case Report of Focal Benign Enhancement</t>
+          <t>https://openalex.org/W4387577985</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>P‐BT‐20 | Survey‐Based Assessment of Hematopoietic Stem Cell Graft Manipulation (Minimal) by Cell Therapy Labs Supporting Hematopoietic Stem Cell Transplants in India</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Current Medical Imaging Reviews</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bentham Science Publishers</t>
+          <t>Transfusion</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2174/1573405620666230720103113</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1111/trf.96_17554</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37489785</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2174/1573405620666230720103113</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/trf.96_17554</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saurabh Arora, Rasika Setia, Seema Dua, Mohit Dogra, Saurabh Sharma, Nita Radhakrishnan</t>
+          <t>SGopi Pavan Sudhir, Sonali Sharma, Saurabh Sharma</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387577985</t>
+          <t>Department of Conservative Dentistry and Endodontics, Army Dental Center (R&amp;R), Delhi, India; This is an open-access article distributed under the terms of the Creative Commons Attribution-Noncommercial-Share Alike 4.0 Unported, which permits unrestricted use, distribution, and reproduction in any medium, provided the original work is properly cited.; Department of Conservative Dentistry and Endodontics, Army Dental Center (R&amp;R), Delhi, India; This is an open-access article distributed under the terms of the Creative Commons Attribution-Noncommercial-Share Alike 4.0 Unported, which permits unrestricted use, distribution, and reproduction in any medium, provided the original work is properly cited.; Department of Conservative Dentistry and Endodontics, Army Dental Center (R&amp;R), Delhi, India; This is an open-access article distributed under the terms of the Creative Commons Attribution-Noncommercial-Share Alike 4.0 Unported, which permits unrestricted use, distribution, and reproduction in any medium, provided the original work is properly cited.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P‐BT‐20 | Survey‐Based Assessment of Hematopoietic Stem Cell Graft Manipulation (Minimal) by Cell Therapy Labs Supporting Hematopoietic Stem Cell Transplants in India</t>
+          <t>https://openalex.org/W4389351827</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Alternatives of amalgam</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transfusion</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Journal of Dentistry Defence Section</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/trf.96_17554</t>
+          <t>Medknow</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.4103/jodd.jodd_9_22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-sa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/trf.96_17554</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4103/jodd.jodd_9_22</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SGopi Pavan Sudhir, Sonali Sharma, Saurabh Sharma</t>
+          <t>Saurabh Sharma, Simranjeet Singh, Shyam Sunder Sharma, Neerja Negi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389351827</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alternatives of amalgam</t>
+          <t>https://openalex.org/W4362630844</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Big Data in Cloud Computing: An Overview</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Journal of Dentistry Defence Section</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Medknow</t>
+          <t>International Journal for Research in Applied Science and Engineering Technology</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4103/jodd.jodd_9_22</t>
+          <t>International Journal for Research in Applied Science and Engineering Technology (IJRASET)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by-nc-sa</t>
+          <t>https://doi.org/10.22214/ijraset.2023.49619</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4103/jodd.jodd_9_22</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22214/ijraset.2023.49619</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
